--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>115.9096531418858</v>
+        <v>139.0784348472451</v>
       </c>
       <c r="R2">
-        <v>115.9096531418858</v>
+        <v>1251.705913625206</v>
       </c>
       <c r="S2">
-        <v>0.001051226347657943</v>
+        <v>0.001132085904103351</v>
       </c>
       <c r="T2">
-        <v>0.001051226347657943</v>
+        <v>0.001132085904103351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>2460.560537120185</v>
+        <v>2739.10325332747</v>
       </c>
       <c r="R3">
-        <v>2460.560537120185</v>
+        <v>24651.92927994723</v>
       </c>
       <c r="S3">
-        <v>0.02231570880004135</v>
+        <v>0.02229605320466463</v>
       </c>
       <c r="T3">
-        <v>0.02231570880004135</v>
+        <v>0.02229605320466462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>796.1030417477602</v>
+        <v>995.5519480923581</v>
       </c>
       <c r="R4">
-        <v>796.1030417477602</v>
+        <v>8959.967532831222</v>
       </c>
       <c r="S4">
-        <v>0.007220144916760655</v>
+        <v>0.008103702982247895</v>
       </c>
       <c r="T4">
-        <v>0.007220144916760655</v>
+        <v>0.008103702982247895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H5">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I5">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J5">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>2840.157090587546</v>
+        <v>3061.517352427638</v>
       </c>
       <c r="R5">
-        <v>2840.157090587546</v>
+        <v>27553.65617184874</v>
       </c>
       <c r="S5">
-        <v>0.02575840651907055</v>
+        <v>0.02492047486483339</v>
       </c>
       <c r="T5">
-        <v>0.02575840651907055</v>
+        <v>0.02492047486483339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>60291.6001117463</v>
+        <v>60295.56019496112</v>
       </c>
       <c r="R6">
-        <v>60291.6001117463</v>
+        <v>542660.0417546501</v>
       </c>
       <c r="S6">
-        <v>0.5468062138219005</v>
+        <v>0.4908004166979787</v>
       </c>
       <c r="T6">
-        <v>0.5468062138219005</v>
+        <v>0.4908004166979787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>19507.06983904471</v>
+        <v>21914.96882802507</v>
       </c>
       <c r="R7">
-        <v>19507.06983904471</v>
+        <v>197234.7194522257</v>
       </c>
       <c r="S7">
-        <v>0.1769166348492601</v>
+        <v>0.178385867847311</v>
       </c>
       <c r="T7">
-        <v>0.1769166348492601</v>
+        <v>0.1783858678473111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H8">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I8">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J8">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>503.048536833767</v>
+        <v>564.4734419976947</v>
       </c>
       <c r="R8">
-        <v>503.048536833767</v>
+        <v>5080.260977979252</v>
       </c>
       <c r="S8">
-        <v>0.004562328173160038</v>
+        <v>0.004594762859016664</v>
       </c>
       <c r="T8">
-        <v>0.004562328173160038</v>
+        <v>0.004594762859016663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H9">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I9">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J9">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>10678.84636384893</v>
+        <v>11117.11562681184</v>
       </c>
       <c r="R9">
-        <v>10678.84636384893</v>
+        <v>100054.0406413065</v>
       </c>
       <c r="S9">
-        <v>0.09685029983246984</v>
+        <v>0.09049231758484999</v>
       </c>
       <c r="T9">
-        <v>0.09685029983246984</v>
+        <v>0.09049231758484996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>3455.091611997957</v>
+        <v>4040.61661640374</v>
       </c>
       <c r="R10">
-        <v>3455.091611997957</v>
+        <v>36365.54954763367</v>
       </c>
       <c r="S10">
-        <v>0.03133546894198839</v>
+        <v>0.03289025448367031</v>
       </c>
       <c r="T10">
-        <v>0.03133546894198839</v>
+        <v>0.03289025448367031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H11">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I11">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J11">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>278.5105698478866</v>
+        <v>584.7680931943386</v>
       </c>
       <c r="R11">
-        <v>278.5105698478866</v>
+        <v>5262.912838749046</v>
       </c>
       <c r="S11">
-        <v>0.002525912563701103</v>
+        <v>0.004759959487621589</v>
       </c>
       <c r="T11">
-        <v>0.002525912563701103</v>
+        <v>0.004759959487621589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H12">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I12">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J12">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>5912.295471195088</v>
+        <v>11516.81199367798</v>
       </c>
       <c r="R12">
-        <v>5912.295471195088</v>
+        <v>103651.3079431018</v>
       </c>
       <c r="S12">
-        <v>0.05362073482224119</v>
+        <v>0.09374580992783953</v>
       </c>
       <c r="T12">
-        <v>0.05362073482224119</v>
+        <v>0.09374580992783953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H13">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I13">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J13">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q13">
-        <v>1912.89599964027</v>
+        <v>4185.889890127772</v>
       </c>
       <c r="R13">
-        <v>1912.89599964027</v>
+        <v>37673.00901114994</v>
       </c>
       <c r="S13">
-        <v>0.0173487420645612</v>
+        <v>0.03407276581698059</v>
       </c>
       <c r="T13">
-        <v>0.0173487420645612</v>
+        <v>0.0340727658169806</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H14">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I14">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J14">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N14">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q14">
-        <v>51.87131301919305</v>
+        <v>60.89245493710312</v>
       </c>
       <c r="R14">
-        <v>51.87131301919305</v>
+        <v>548.032094433928</v>
       </c>
       <c r="S14">
-        <v>0.0004704396006313603</v>
+        <v>0.0004956590860132795</v>
       </c>
       <c r="T14">
-        <v>0.0004704396006313603</v>
+        <v>0.0004956590860132795</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H15">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I15">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J15">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q15">
-        <v>1101.137846279284</v>
+        <v>1199.256531787317</v>
       </c>
       <c r="R15">
-        <v>1101.137846279284</v>
+        <v>10793.30878608585</v>
       </c>
       <c r="S15">
-        <v>0.009986615308003268</v>
+        <v>0.009761839903731034</v>
       </c>
       <c r="T15">
-        <v>0.009986615308003268</v>
+        <v>0.009761839903731034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H16">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I16">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J16">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q16">
-        <v>356.2680842766428</v>
+        <v>435.8806755579471</v>
       </c>
       <c r="R16">
-        <v>356.2680842766428</v>
+        <v>3922.926080021524</v>
       </c>
       <c r="S16">
-        <v>0.003231123438552413</v>
+        <v>0.003548029349137965</v>
       </c>
       <c r="T16">
-        <v>0.003231123438552413</v>
+        <v>0.003548029349137966</v>
       </c>
     </row>
   </sheetData>
